--- a/data/corr.xlsx
+++ b/data/corr.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghulux/Programs/pythonProjects/convertible_bond/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4783B-B936-6F4A-B134-B81DF7744A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>转债盈亏</t>
   </si>
@@ -52,15 +46,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,15 +59,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,39 +99,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -189,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,343 +397,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-1.035516856806655E-2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.22749485383141599</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.27539381221394071</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7.0641944928106298E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>-5.2707014482480857E-2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-0.29255626611110769</v>
-      </c>
-      <c r="I2" s="4">
-        <v>7.3041153199904701E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.99999999999999956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-1.035516856806655E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.97137132483303901</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.0546038889555691E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6.9027566142947791E-2</v>
-      </c>
-      <c r="G3" s="4">
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-0.01035516856806655</v>
+      </c>
+      <c r="C2">
+        <v>0.227494853831416</v>
+      </c>
+      <c r="D2">
+        <v>0.2753938122139407</v>
+      </c>
+      <c r="E2">
+        <v>0.0706419449281063</v>
+      </c>
+      <c r="F2">
+        <v>-0.05270701448248086</v>
+      </c>
+      <c r="G2">
+        <v>-0.2925562661111077</v>
+      </c>
+      <c r="H2">
+        <v>0.0730411531999047</v>
+      </c>
+      <c r="I2">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>-0.01035516856806655</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.971371324833039</v>
+      </c>
+      <c r="D3">
+        <v>0.03054603888955569</v>
+      </c>
+      <c r="E3">
+        <v>0.06902756614294779</v>
+      </c>
+      <c r="F3">
         <v>-0.1052380275622281</v>
       </c>
-      <c r="H3" s="4">
-        <v>-7.9686286200483705E-3</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.78016668302208314</v>
-      </c>
-      <c r="J3" s="4">
-        <v>-1.0355168568066441E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.22749485383141599</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.97137132483303901</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9.5174493133987043E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>8.4004263674175766E-2</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="G3">
+        <v>-0.00796862862004837</v>
+      </c>
+      <c r="H3">
+        <v>0.7801666830220831</v>
+      </c>
+      <c r="I3">
+        <v>-0.01035516856806644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0.227494853831416</v>
+      </c>
+      <c r="B4">
+        <v>0.971371324833039</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.09517449313398704</v>
+      </c>
+      <c r="E4">
+        <v>0.08400426367417577</v>
+      </c>
+      <c r="F4">
         <v>-0.1150061878705204</v>
       </c>
-      <c r="H4" s="4">
-        <v>-7.7265339292915708E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.77710393524377552</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.22749485383141599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.27539381221394071</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.0546038889555691E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>9.5174493133987043E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8.8963174807415599E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6.3985734842454983E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-0.15607374914484509</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-2.6956157068958889E-2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.27539381221394049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7.0641944928106298E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6.9027566142947791E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>8.4004263674175766E-2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8.8963174807415599E-2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5.0187521874504599E-4</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-0.17330905027895191</v>
-      </c>
-      <c r="I6" s="4">
-        <v>6.608083037212073E-2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>7.064194492810634E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-5.2707014482480857E-2</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="G4">
+        <v>-0.07726533929291571</v>
+      </c>
+      <c r="H4">
+        <v>0.7771039352437755</v>
+      </c>
+      <c r="I4">
+        <v>0.227494853831416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0.2753938122139407</v>
+      </c>
+      <c r="B5">
+        <v>0.03054603888955569</v>
+      </c>
+      <c r="C5">
+        <v>0.09517449313398704</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.0889631748074156</v>
+      </c>
+      <c r="F5">
+        <v>0.06398573484245498</v>
+      </c>
+      <c r="G5">
+        <v>-0.1560737491448451</v>
+      </c>
+      <c r="H5">
+        <v>-0.02695615706895889</v>
+      </c>
+      <c r="I5">
+        <v>0.2753938122139405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>0.0706419449281063</v>
+      </c>
+      <c r="B6">
+        <v>0.06902756614294779</v>
+      </c>
+      <c r="C6">
+        <v>0.08400426367417577</v>
+      </c>
+      <c r="D6">
+        <v>0.0889631748074156</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.000501875218745046</v>
+      </c>
+      <c r="G6">
+        <v>-0.1733090502789519</v>
+      </c>
+      <c r="H6">
+        <v>0.06608083037212073</v>
+      </c>
+      <c r="I6">
+        <v>0.07064194492810634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>-0.05270701448248086</v>
+      </c>
+      <c r="B7">
         <v>-0.1052380275622281</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7">
         <v>-0.1150061878705204</v>
       </c>
-      <c r="E7" s="4">
-        <v>6.3985734842454983E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5.0187521874504599E-4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5.4659825564368769E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-0.11219419386870021</v>
-      </c>
-      <c r="J7" s="4">
-        <v>-5.2707014482480823E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-0.29255626611110769</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-7.9686286200483705E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-7.7265339292915708E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-0.15607374914484509</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-0.17330905027895191</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5.4659825564368769E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="D7">
+        <v>0.06398573484245498</v>
+      </c>
+      <c r="E7">
+        <v>0.000501875218745046</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.05465982556436877</v>
+      </c>
+      <c r="H7">
+        <v>-0.1121941938687002</v>
+      </c>
+      <c r="I7">
+        <v>-0.05270701448248082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>-0.2925562661111077</v>
+      </c>
+      <c r="B8">
+        <v>-0.00796862862004837</v>
+      </c>
+      <c r="C8">
+        <v>-0.07726533929291571</v>
+      </c>
+      <c r="D8">
+        <v>-0.1560737491448451</v>
+      </c>
+      <c r="E8">
+        <v>-0.1733090502789519</v>
+      </c>
+      <c r="F8">
+        <v>0.05465982556436877</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>-0.1458116466896853</v>
       </c>
-      <c r="J8" s="4">
-        <v>-0.29255626611110758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7.3041153199904701E-2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.78016668302208314</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.77710393524377552</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-2.6956157068958889E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.608083037212073E-2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-0.11219419386870021</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="I8">
+        <v>-0.2925562661111076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>0.0730411531999047</v>
+      </c>
+      <c r="B9">
+        <v>0.7801666830220831</v>
+      </c>
+      <c r="C9">
+        <v>0.7771039352437755</v>
+      </c>
+      <c r="D9">
+        <v>-0.02695615706895889</v>
+      </c>
+      <c r="E9">
+        <v>0.06608083037212073</v>
+      </c>
+      <c r="F9">
+        <v>-0.1121941938687002</v>
+      </c>
+      <c r="G9">
         <v>-0.1458116466896853</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>7.3041153199904729E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-1.0355168568066441E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.22749485383141599</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.27539381221394049</v>
-      </c>
-      <c r="F10" s="4">
-        <v>7.064194492810634E-2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-5.2707014482480823E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-0.29255626611110758</v>
-      </c>
-      <c r="I10" s="4">
-        <v>7.3041153199904729E-2</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.07304115319990473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="B10">
+        <v>-0.01035516856806644</v>
+      </c>
+      <c r="C10">
+        <v>0.227494853831416</v>
+      </c>
+      <c r="D10">
+        <v>0.2753938122139405</v>
+      </c>
+      <c r="E10">
+        <v>0.07064194492810634</v>
+      </c>
+      <c r="F10">
+        <v>-0.05270701448248082</v>
+      </c>
+      <c r="G10">
+        <v>-0.2925562661111076</v>
+      </c>
+      <c r="H10">
+        <v>0.07304115319990473</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/corr.xlsx
+++ b/data/corr.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>转债盈亏</t>
-  </si>
-  <si>
-    <t>正股盈亏</t>
-  </si>
-  <si>
-    <t>总盈亏</t>
-  </si>
-  <si>
-    <t>股东配售比例</t>
-  </si>
-  <si>
-    <t>正股市值</t>
-  </si>
-  <si>
-    <t>T-3日至T-5日股价涨跌幅</t>
-  </si>
-  <si>
-    <t>安全边际</t>
-  </si>
-  <si>
-    <t>正股T-2日至T日涨跌幅</t>
-  </si>
-  <si>
-    <t>可转债上市当天涨跌幅</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,304 +420,538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>转债盈亏</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>正股盈亏</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总盈亏</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>流通市值</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股东配售比例</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>正股市值</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>T-3日至T-5日股价涨跌幅</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>安全边际</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>正股T-2日至T日涨跌幅</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>每手正股参与金额</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>可转债上市当天涨跌幅</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>百元股票含权（元）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>-0.01035516856806655</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.227494853831416</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
+        <v>0.06949371198766123</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.2753938122139407</v>
       </c>
-      <c r="E2">
+      <c r="F2" t="n">
         <v>0.0706419449281063</v>
       </c>
-      <c r="F2">
+      <c r="G2" t="n">
         <v>-0.05270701448248086</v>
       </c>
-      <c r="G2">
+      <c r="H2" t="n">
         <v>-0.2925562661111077</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="n">
         <v>0.0730411531999047</v>
       </c>
-      <c r="I2">
+      <c r="J2" t="n">
+        <v>0.2641085630842095</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.9999999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="L2" t="n">
+        <v>-0.2991587476704489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>-0.01035516856806655</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.971371324833039</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
+        <v>0.0872765055429678</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03054603888955569</v>
       </c>
-      <c r="E3">
+      <c r="F3" t="n">
         <v>0.06902756614294779</v>
       </c>
-      <c r="F3">
+      <c r="G3" t="n">
         <v>-0.1052380275622281</v>
       </c>
-      <c r="G3">
+      <c r="H3" t="n">
         <v>-0.00796862862004837</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="n">
         <v>0.7801666830220831</v>
       </c>
-      <c r="I3">
+      <c r="J3" t="n">
+        <v>0.05562693245006883</v>
+      </c>
+      <c r="K3" t="n">
         <v>-0.01035516856806644</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="L3" t="n">
+        <v>-0.04020740482823356</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0.227494853831416</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.971371324833039</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1015028595449118</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.09517449313398704</v>
       </c>
-      <c r="E4">
+      <c r="F4" t="n">
         <v>0.08400426367417577</v>
       </c>
-      <c r="F4">
+      <c r="G4" t="n">
         <v>-0.1150061878705204</v>
       </c>
-      <c r="G4">
+      <c r="H4" t="n">
         <v>-0.07726533929291571</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="n">
         <v>0.7771039352437755</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="n">
+        <v>0.1169179185381462</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.227494853831416</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="L4" t="n">
+        <v>-0.1102290862039824</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06949371198766123</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0872765055429678</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1015028595449118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08899953338628395</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9816577387573302</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.002133542956895179</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.1521949872282144</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07418322559311268</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4052380700090001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.06949371198766101</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.1532752604874992</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>0.2753938122139407</v>
       </c>
-      <c r="B5">
+      <c r="B6" t="n">
         <v>0.03054603888955569</v>
       </c>
-      <c r="C5">
+      <c r="C6" t="n">
         <v>0.09517449313398704</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D6" t="n">
+        <v>0.08899953338628395</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0889631748074156</v>
       </c>
-      <c r="F5">
+      <c r="G6" t="n">
         <v>0.06398573484245498</v>
       </c>
-      <c r="G5">
+      <c r="H6" t="n">
         <v>-0.1560737491448451</v>
       </c>
-      <c r="H5">
+      <c r="I6" t="n">
         <v>-0.02695615706895889</v>
       </c>
-      <c r="I5">
+      <c r="J6" t="n">
+        <v>0.09249316455316937</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.2753938122139405</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="L6" t="n">
+        <v>-0.1474484726245106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0.0706419449281063</v>
       </c>
-      <c r="B6">
+      <c r="B7" t="n">
         <v>0.06902756614294779</v>
       </c>
-      <c r="C6">
+      <c r="C7" t="n">
         <v>0.08400426367417577</v>
       </c>
-      <c r="D6">
+      <c r="D7" t="n">
+        <v>0.9816577387573302</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0889631748074156</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.000501875218745046</v>
       </c>
-      <c r="G6">
+      <c r="H7" t="n">
         <v>-0.1733090502789519</v>
       </c>
-      <c r="H6">
+      <c r="I7" t="n">
         <v>0.06608083037212073</v>
       </c>
-      <c r="I6">
+      <c r="J7" t="n">
+        <v>0.4210472148535963</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.07064194492810634</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="L7" t="n">
+        <v>-0.1732912570293524</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>-0.05270701448248086</v>
       </c>
-      <c r="B7">
+      <c r="B8" t="n">
         <v>-0.1052380275622281</v>
       </c>
-      <c r="C7">
+      <c r="C8" t="n">
         <v>-0.1150061878705204</v>
       </c>
-      <c r="D7">
+      <c r="D8" t="n">
+        <v>-0.002133542956895179</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.06398573484245498</v>
       </c>
-      <c r="E7">
+      <c r="F8" t="n">
         <v>0.000501875218745046</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.05465982556436877</v>
       </c>
-      <c r="H7">
+      <c r="I8" t="n">
         <v>-0.1121941938687002</v>
       </c>
-      <c r="I7">
+      <c r="J8" t="n">
+        <v>-0.087591167759489</v>
+      </c>
+      <c r="K8" t="n">
         <v>-0.05270701448248082</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="L8" t="n">
+        <v>0.06221841097847963</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>-0.2925562661111077</v>
       </c>
-      <c r="B8">
+      <c r="B9" t="n">
         <v>-0.00796862862004837</v>
       </c>
-      <c r="C8">
+      <c r="C9" t="n">
         <v>-0.07726533929291571</v>
       </c>
-      <c r="D8">
+      <c r="D9" t="n">
+        <v>-0.1521949872282144</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.1560737491448451</v>
       </c>
-      <c r="E8">
+      <c r="F9" t="n">
         <v>-0.1733090502789519</v>
       </c>
-      <c r="F8">
+      <c r="G9" t="n">
         <v>0.05465982556436877</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>-0.1458116466896853</v>
       </c>
-      <c r="I8">
+      <c r="J9" t="n">
+        <v>-0.6122504293301165</v>
+      </c>
+      <c r="K9" t="n">
         <v>-0.2925562661111076</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="L9" t="n">
+        <v>0.9905035508580357</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0.0730411531999047</v>
       </c>
-      <c r="B9">
+      <c r="B10" t="n">
         <v>0.7801666830220831</v>
       </c>
-      <c r="C9">
+      <c r="C10" t="n">
         <v>0.7771039352437755</v>
       </c>
-      <c r="D9">
+      <c r="D10" t="n">
+        <v>0.07418322559311268</v>
+      </c>
+      <c r="E10" t="n">
         <v>-0.02695615706895889</v>
       </c>
-      <c r="E9">
+      <c r="F10" t="n">
         <v>0.06608083037212073</v>
       </c>
-      <c r="F9">
+      <c r="G10" t="n">
         <v>-0.1121941938687002</v>
       </c>
-      <c r="G9">
+      <c r="H10" t="n">
         <v>-0.1458116466896853</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1217402877301539</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.07304115319990473</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
+      <c r="L10" t="n">
+        <v>-0.2062722183052935</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2641085630842095</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05562693245006883</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1169179185381462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4052380700090001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.09249316455316937</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4210472148535963</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.087591167759489</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.6122504293301165</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1217402877301539</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2641085630842095</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.6027135929672652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>0.9999999999999996</v>
       </c>
-      <c r="B10">
+      <c r="B12" t="n">
         <v>-0.01035516856806644</v>
       </c>
-      <c r="C10">
+      <c r="C12" t="n">
         <v>0.227494853831416</v>
       </c>
-      <c r="D10">
+      <c r="D12" t="n">
+        <v>0.06949371198766101</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.2753938122139405</v>
       </c>
-      <c r="E10">
+      <c r="F12" t="n">
         <v>0.07064194492810634</v>
       </c>
-      <c r="F10">
+      <c r="G12" t="n">
         <v>-0.05270701448248082</v>
       </c>
-      <c r="G10">
+      <c r="H12" t="n">
         <v>-0.2925562661111076</v>
       </c>
-      <c r="H10">
+      <c r="I12" t="n">
         <v>0.07304115319990473</v>
       </c>
-      <c r="I10">
+      <c r="J12" t="n">
+        <v>0.2641085630842095</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.2991587476704493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.2991587476704489</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.04020740482823356</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1102290862039824</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1532752604874992</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.1474484726245106</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1732912570293524</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.06221841097847963</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9905035508580357</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.2062722183052935</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.6027135929672652</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.2991587476704493</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>